--- a/data/excel/japanese-people-data.xlsx
+++ b/data/excel/japanese-people-data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">人名/本名</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t xml:space="preserve">1959年12月6日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大坂 なおみ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997年10月16日</t>
   </si>
 </sst>
 </file>
@@ -107,7 +113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -134,6 +140,16 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -178,7 +194,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -197,6 +213,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -219,7 +243,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -333,9 +357,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>

--- a/data/excel/japanese-people-data.xlsx
+++ b/data/excel/japanese-people-data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">人名/本名</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t xml:space="preserve">1997年10月16日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">荒川 弘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1973年5月8日</t>
   </si>
 </sst>
 </file>
@@ -113,7 +119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -140,11 +146,6 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -194,7 +195,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -217,10 +218,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -243,7 +240,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -361,13 +358,17 @@
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/excel/japanese-people-data.xlsx
+++ b/data/excel/japanese-people-data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">人名/本名</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t xml:space="preserve">1973年5月8日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">忽那 汐里</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1992年12月22日</t>
   </si>
 </sst>
 </file>
@@ -119,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -147,11 +153,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -195,7 +196,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,10 +215,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -237,10 +234,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -354,21 +351,101 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/excel/japanese-people-data.xlsx
+++ b/data/excel/japanese-people-data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">人名/本名</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t xml:space="preserve">1992年12月22日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草間 彌生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1929年3月22日</t>
   </si>
 </sst>
 </file>
@@ -237,7 +243,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -375,9 +381,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>

--- a/data/excel/japanese-people-data.xlsx
+++ b/data/excel/japanese-people-data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">人名/本名</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t xml:space="preserve">1929年3月22日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">非公開</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995年3月6日</t>
   </si>
 </sst>
 </file>
@@ -243,7 +249,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -389,9 +395,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
